--- a/Excel/LogicalFunctions.xlsx
+++ b/Excel/LogicalFunctions.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD749B-94F5-4B6D-B741-D894704CC1DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3238E766-84D7-4E3C-B989-EF2F1BDA9AA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5420" activeTab="2" xr2:uid="{45DCA121-BD63-4B68-B854-79B4E3B5D979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5420" activeTab="6" xr2:uid="{45DCA121-BD63-4B68-B854-79B4E3B5D979}"/>
   </bookViews>
   <sheets>
     <sheet name="Static&amp;DynamicFormulas" sheetId="1" r:id="rId1"/>
     <sheet name="AND" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IFAND" sheetId="3" r:id="rId3"/>
+    <sheet name="IFOR" sheetId="4" r:id="rId4"/>
+    <sheet name="AND|OR" sheetId="5" r:id="rId5"/>
+    <sheet name="NOT|OR|AND" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -69,6 +73,66 @@
   </si>
   <si>
     <t>MinimumMarks</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition1 </t>
+  </si>
+  <si>
+    <t>Condition 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Function </t>
+  </si>
+  <si>
+    <t>Or Function</t>
+  </si>
+  <si>
+    <t>Using not and OR</t>
+  </si>
+  <si>
+    <t>Using Not and AND</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>AdmisionStatus</t>
+  </si>
+  <si>
+    <t>Lab Status</t>
+  </si>
+  <si>
+    <t>StudentStatus</t>
+  </si>
+  <si>
+    <t>Kumr</t>
+  </si>
+  <si>
+    <t>Vani</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sem Results</t>
+  </si>
+  <si>
+    <t>SemResult</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -98,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +185,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C416E-9C55-4267-8E5A-767DE0A27456}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +831,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(AND(B4&gt;=$F$3,C4&gt;=$F$3),"Pass","Fail")</f>
+        <f>IF(AND(B4&gt;=$F$3,C4&gt;=$F$3),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -742,11 +846,563 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="str">
+        <f>IF(AND(B5&gt;=$F$3,C5&gt;=$F$3),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFE298-8950-4978-90B3-57A023E82F51}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(OR(B2&gt;=$F$3,C2&gt;=$F$3),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D6" si="0">IF(OR(B3&gt;=$F$3,C3&gt;=$F$3),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6F451-5303-49C7-9880-993AC7A89D8A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E0837-E5D4-4CB8-9F33-A6A79CFF1BB8}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>IF(OR(B2&gt;=$G$3,C2&gt;=$G$3),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(NOT(OR(B2&gt;=$G$3,C2&gt;=$G$3)),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(NOT(AND(B2&gt;=$G$3,C2&gt;=$G$3)),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D6" si="0">IF(OR(B3&gt;=$G$3,C3&gt;=$G$3),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E6" si="1">IF(NOT(OR(B3&gt;=$G$3,C3&gt;=$G$3)),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>IF(NOT(AND(B3&gt;=$G$3,C3&gt;=$G$3)),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G3" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F3:F6" si="2">IF(NOT(AND(B4&gt;=$G$3,C4&gt;=$G$3)),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A547CD-FC93-4B84-8A30-BFEA2F96212B}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>IF(B2="Yes",IF(C2="Yes","Active","NotActive"),"CompleteYourAdmision")</f>
+        <v>Active</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>IF(B2="Yes",IF(C2="Yes",IF(D2="Pass","GoodStudent","NeedsImprovement"),"NotActive"),"CompleteYourAdmision")</f>
+        <v>GoodStudent</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f t="shared" ref="E3:E7" si="0">IF(B3="Yes",IF(C3="Yes","Active","NotActive"),"CompleteYourAdmision")</f>
+        <v>CompleteYourAdmision</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F7" si="1">IF(B3="Yes",IF(C3="Yes",IF(D3="Pass","GoodStudent","NeedsImprovement"),"NotActive"),"CompleteYourAdmision")</f>
+        <v>CompleteYourAdmision</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>NotActive</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>NotActive</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>NotActive</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>NotActive</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CompleteYourAdmision</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>CompleteYourAdmision</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Active</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>NeedsImprovement</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/LogicalFunctions.xlsx
+++ b/Excel/LogicalFunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3238E766-84D7-4E3C-B989-EF2F1BDA9AA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE8773C-68AF-47AE-9A06-476CAF52E327}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5420" activeTab="6" xr2:uid="{45DCA121-BD63-4B68-B854-79B4E3B5D979}"/>
   </bookViews>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Excel/LogicalFunctions.xlsx
+++ b/Excel/LogicalFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE8773C-68AF-47AE-9A06-476CAF52E327}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630C9FC-3449-4473-88F3-C1E41FBF828F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5420" activeTab="6" xr2:uid="{45DCA121-BD63-4B68-B854-79B4E3B5D979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13660" windowHeight="5420" firstSheet="1" activeTab="8" xr2:uid="{45DCA121-BD63-4B68-B854-79B4E3B5D979}"/>
   </bookViews>
   <sheets>
     <sheet name="Static&amp;DynamicFormulas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="IFOR" sheetId="4" r:id="rId4"/>
     <sheet name="AND|OR" sheetId="5" r:id="rId5"/>
     <sheet name="NOT|OR|AND" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="NestedConditions" sheetId="7" r:id="rId7"/>
+    <sheet name="IFS" sheetId="8" r:id="rId8"/>
+    <sheet name="IFError" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -133,19 +135,127 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Ajay Sharma</t>
+  </si>
+  <si>
+    <t>Aniket Kshirsagar</t>
+  </si>
+  <si>
+    <t>Gopal Bharuka</t>
+  </si>
+  <si>
+    <t>Mahesh Siroya</t>
+  </si>
+  <si>
+    <t>Umesh Siroya</t>
+  </si>
+  <si>
+    <t>Nilesh Jaiswal</t>
+  </si>
+  <si>
+    <t>Palak Bharuka</t>
+  </si>
+  <si>
+    <t>Sonal Agarwal</t>
+  </si>
+  <si>
+    <t>Pandhari Tayde</t>
+  </si>
+  <si>
+    <t>Pramod Pawar</t>
+  </si>
+  <si>
+    <t>Rahul Khandelwal</t>
+  </si>
+  <si>
+    <t>Rahul Mohite</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Condtions</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>&lt;=6</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>&lt;=8</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating </t>
+  </si>
+  <si>
+    <t>&lt;=10</t>
+  </si>
+  <si>
+    <t>Exclent</t>
+  </si>
+  <si>
+    <t>&lt;=3</t>
+  </si>
+  <si>
+    <t>BadCondtionsUsing</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>swatch</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Sales In Thousands</t>
+  </si>
+  <si>
+    <t>withoutIfError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +345,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A547CD-FC93-4B84-8A30-BFEA2F96212B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,4 +1518,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD141D1-3919-473B-8A83-F0DD7C45C6EB}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>_xlfn.IFS(B2&lt;=3,"Bad",B2&lt;=6,"Ok",B2&lt;=8,"Good",B2&lt;=10,"Exclent")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>_xlfn.IFS(B2&lt;=10,"Exclent",B2&lt;=6,"Ok",B2&lt;=3,"Bad",B2&lt;=8,"Good")</f>
+        <v>Exclent</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C13" si="0">_xlfn.IFS(B3&lt;=3,"Bad",B3&lt;=6,"Ok",B3&lt;=8,"Good",B3&lt;=10,"Exclent")</f>
+        <v>Ok</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D13" si="1">_xlfn.IFS(B3&lt;=10,"Exclent",B3&lt;=6,"Ok",B3&lt;=3,"Bad",B3&lt;=8,"Good")</f>
+        <v>Exclent</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Good</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Exclent</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bad</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bad</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Good</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Good</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Exclent</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D70C0AE-F967-405D-8B0F-FCF1C9625F75}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="e">
+        <f>B2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IFERROR(B2/C2,"InvalidData")</f>
+        <v>InvalidData</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D6" si="0">B3/C3</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E6" si="1">IFERROR(B3/C3,"InvalidData")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>InvalidData</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>InvalidData</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f>IF(C12="Yes",IF(D12="Yes","Active","NotActive"),"CompleteYourAdmision")</f>
+        <v>Active</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f>IFERROR(IF(C12="Yes",IF(D12="Yes",IF(E12="Pass","GoodStudent","NeedsImprovement"),"NotActive"),"CompleteYourAdmision"),"Wronginputs")</f>
+        <v>GoodStudent</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <f t="shared" ref="F13:F17" si="2">IF(C13="Yes",IF(D13="Yes","Active","NotActive"),"CompleteYourAdmision")</f>
+        <v>CompleteYourAdmision</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" ref="G13:G17" si="3">IFERROR(IF(C13="Yes",IF(D13="Yes",IF(E13="Pass","GoodStudent","NeedsImprovement"),"NotActive"),"CompleteYourAdmision"),"Wronginputs")</f>
+        <v>CompleteYourAdmision</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>NotActive</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>NotActive</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>NotActive</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>NotActive</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>CompleteYourAdmision</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>CompleteYourAdmision</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Active</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>NeedsImprovement</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>